--- a/tables/TableS4_phylo_model_comparison.xlsx
+++ b/tables/TableS4_phylo_model_comparison.xlsx
@@ -1,110 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50A3E58-6ABA-F34E-AF36-7B210A03ECCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="31600" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Taxanomically nested random effects</t>
-  </si>
-  <si>
-    <t>-219.1 (9.7)</t>
-  </si>
-  <si>
-    <t>438.2 (19.5)</t>
-  </si>
-  <si>
-    <t>30.8 (3.8)</t>
-  </si>
-  <si>
-    <t>0.71 (0.65-0.76)</t>
-  </si>
-  <si>
-    <t>Non-phylogenetic random effects</t>
-  </si>
-  <si>
-    <t>-221.5 (10.2)</t>
-  </si>
-  <si>
-    <t>443 (20.3)</t>
-  </si>
-  <si>
-    <t>32.7 (4.6)</t>
-  </si>
-  <si>
-    <t>0.7 (0.64-0.75)</t>
-  </si>
-  <si>
-    <t>Phylogenetic random effects</t>
-  </si>
-  <si>
-    <t>-223.4 (10)</t>
-  </si>
-  <si>
-    <t>446.8 (19.9)</t>
-  </si>
-  <si>
-    <t>30.8 (4.8)</t>
-  </si>
-  <si>
-    <t>0.69 (0.61-0.74)</t>
-  </si>
-  <si>
-    <t>Fixed effets only</t>
-  </si>
-  <si>
-    <t>-251.8 (10)</t>
-  </si>
-  <si>
-    <t>503.6 (20.1)</t>
-  </si>
-  <si>
-    <t>14 (1.8)</t>
-  </si>
-  <si>
-    <t>0.48 (0.39-0.55)</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>ELPD (sd)</t>
-  </si>
-  <si>
-    <t>LOOIC (sd)</t>
-  </si>
-  <si>
-    <t>P (sd)</t>
-  </si>
-  <si>
-    <t>R2 (CI)</t>
-  </si>
-  <si>
-    <t>ELPD</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -137,28 +48,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -166,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -252,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -287,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,121 +350,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>elpd_delta</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>elpd_stat</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>looic_stat</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p_stat</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>r2_stat</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>elpd_loo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>elpd_loo_sd</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Taxanomically nested random effects</t>
+        </is>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-220.5 (9.8)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>440.9 (19.7)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.8 (4)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.71 (0.64-0.76)</t>
+        </is>
+      </c>
+      <c r="G2">
+        <v>-220.465604735325</v>
+      </c>
+      <c r="H2">
+        <v>9.840891313443571</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Non-phylogenetic random effects</t>
+        </is>
       </c>
       <c r="B3">
-        <v>-2.4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+        <v>-1.9</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-222.4 (10)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>444.8 (20.1)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.1 (4.3)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.7 (0.63-0.75)</t>
+        </is>
+      </c>
+      <c r="G3">
+        <v>-222.378812932014</v>
+      </c>
+      <c r="H3">
+        <v>10.0418965454637</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Phylogenetic random effects</t>
+        </is>
       </c>
       <c r="B4">
-        <v>-4.3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
+        <v>-4.2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-224.7 (10.2)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>449.3 (20.3)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.4 (5.1)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.68 (0.6-0.74)</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>-224.673695456906</v>
+      </c>
+      <c r="H4">
+        <v>10.1555955693032</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fixed effects only</t>
+        </is>
       </c>
       <c r="B5">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
+        <v>-32.9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-253.3 (9.9)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>506.6 (19.8)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15.1 (2)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.47 (0.38-0.54)</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>-253.316961772856</v>
+      </c>
+      <c r="H5">
+        <v>9.878325662431619</v>
       </c>
     </row>
   </sheetData>

--- a/tables/TableS4_phylo_model_comparison.xlsx
+++ b/tables/TableS4_phylo_model_comparison.xlsx
@@ -410,29 +410,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-220.5 (9.8)</t>
+          <t>-229.4 (9.2)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>440.9 (19.7)</t>
+          <t>458.8 (18.3)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>31.8 (4)</t>
+          <t>27 (2.6)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.71 (0.64-0.76)</t>
+          <t>0.67 (0.6-0.72)</t>
         </is>
       </c>
       <c r="G2">
-        <v>-220.465604735325</v>
+        <v>-229.420288874067</v>
       </c>
       <c r="H2">
-        <v>9.840891313443571</v>
+        <v>9.166039521649751</v>
       </c>
     </row>
     <row r="3">
@@ -442,33 +442,33 @@
         </is>
       </c>
       <c r="B3">
-        <v>-1.9</v>
+        <v>-0.3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-222.4 (10)</t>
+          <t>-229.7 (9)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>444.8 (20.1)</t>
+          <t>459.4 (18.1)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.1 (4.3)</t>
+          <t>26.9 (2.5)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.7 (0.63-0.75)</t>
+          <t>0.66 (0.59-0.71)</t>
         </is>
       </c>
       <c r="G3">
-        <v>-222.378812932014</v>
+        <v>-229.684765603395</v>
       </c>
       <c r="H3">
-        <v>10.0418965454637</v>
+        <v>9.036059914050741</v>
       </c>
     </row>
     <row r="4">
@@ -478,33 +478,33 @@
         </is>
       </c>
       <c r="B4">
-        <v>-4.2</v>
+        <v>-1.3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-224.7 (10.2)</t>
+          <t>-230.8 (9.2)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>449.3 (20.3)</t>
+          <t>461.5 (18.5)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31.4 (5.1)</t>
+          <t>25.1 (2.6)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.68 (0.6-0.74)</t>
+          <t>0.65 (0.57-0.71)</t>
         </is>
       </c>
       <c r="G4">
-        <v>-224.673695456906</v>
+        <v>-230.754040904481</v>
       </c>
       <c r="H4">
-        <v>10.1555955693032</v>
+        <v>9.24530619639714</v>
       </c>
     </row>
     <row r="5">
@@ -514,33 +514,33 @@
         </is>
       </c>
       <c r="B5">
-        <v>-32.9</v>
+        <v>-26</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-253.3 (9.9)</t>
+          <t>-255.4 (9.5)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>506.6 (19.8)</t>
+          <t>510.8 (19)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15.1 (2)</t>
+          <t>16.5 (2.2)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.47 (0.38-0.54)</t>
+          <t>0.49 (0.4-0.56)</t>
         </is>
       </c>
       <c r="G5">
-        <v>-253.316961772856</v>
+        <v>-255.383913320244</v>
       </c>
       <c r="H5">
-        <v>9.878325662431619</v>
+        <v>9.47506859785558</v>
       </c>
     </row>
   </sheetData>
